--- a/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E90564B-2633-4707-9DA8-2AD2A6DC97B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDFE792-EDE9-4B85-9F4C-F7A1A4500F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2223E6A-7515-4429-9994-7371C6E393CB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2796A8F7-5B30-493F-B1DF-B8F1B36DEBD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,787 +77,835 @@
     <t>4,53%</t>
   </si>
   <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>9,48%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>90,52%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52CBC07-3783-4EC2-8534-B8C4AB3E67A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCCAD03-1C22-49C0-8319-B45CCE5DE8D4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1861,10 +1909,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -1873,10 +1921,10 @@
         <v>180138</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>73</v>
@@ -1906,7 +1954,7 @@
         <v>3128</v>
       </c>
       <c r="D14" s="7">
-        <v>3190973</v>
+        <v>3190974</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1915,7 +1963,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>3120</v>
@@ -1924,19 +1972,19 @@
         <v>3199060</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>6248</v>
       </c>
       <c r="N14" s="7">
-        <v>6390032</v>
+        <v>6390033</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1957,7 +2005,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1987,7 +2035,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2020,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0038514-EF5B-4F4E-BDD2-3062D89AFA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE825FE6-8BCB-4A97-AA7C-DBF2ACE8BA79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,10 +2195,10 @@
         <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>136</v>
@@ -2159,13 +2207,13 @@
         <v>145894</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2174,13 +2222,13 @@
         <v>196653</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2243,13 @@
         <v>923068</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -2210,13 +2258,13 @@
         <v>1187846</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1972</v>
@@ -2225,13 +2273,13 @@
         <v>2110915</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2347,13 @@
         <v>48569</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -2314,13 +2362,13 @@
         <v>90344</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>127</v>
@@ -2332,10 +2380,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2398,13 @@
         <v>1911453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1547</v>
@@ -2365,13 +2413,13 @@
         <v>1661474</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3355</v>
@@ -2383,10 +2431,10 @@
         <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2502,13 @@
         <v>15456</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2469,13 +2517,13 @@
         <v>16574</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2484,13 +2532,13 @@
         <v>32030</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2553,13 @@
         <v>464876</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -2520,13 +2568,13 @@
         <v>441080</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -2535,13 +2583,13 @@
         <v>905956</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2657,13 @@
         <v>114785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -2624,13 +2672,13 @@
         <v>252812</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -2639,13 +2687,13 @@
         <v>367597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2708,13 @@
         <v>3299397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>3049</v>
@@ -2675,13 +2723,13 @@
         <v>3290401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>6148</v>
@@ -2690,13 +2738,13 @@
         <v>6589798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C120377D-660B-4B57-A2C3-DDF47968E166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2DE099-14CF-49D6-AF62-A991127020F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2895,13 +2943,13 @@
         <v>38074</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -2910,13 +2958,13 @@
         <v>126349</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -2925,13 +2973,13 @@
         <v>164423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2994,13 @@
         <v>716273</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>779</v>
@@ -2961,13 +3009,13 @@
         <v>868311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1503</v>
@@ -2976,13 +3024,13 @@
         <v>1584584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3098,13 @@
         <v>65106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -3065,13 +3113,13 @@
         <v>129947</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3080,13 +3128,13 @@
         <v>195053</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3149,13 @@
         <v>2011279</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1788</v>
@@ -3223,10 +3271,10 @@
         <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3235,13 +3283,13 @@
         <v>28367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3304,13 @@
         <v>531901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
@@ -3271,13 +3319,13 @@
         <v>535758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3286,13 +3334,13 @@
         <v>1067659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3408,13 @@
         <v>118165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -3375,13 +3423,13 @@
         <v>269678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>358</v>
@@ -3390,13 +3438,13 @@
         <v>387843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3459,13 @@
         <v>3259453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>3081</v>
@@ -3426,13 +3474,13 @@
         <v>3262422</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>6183</v>
@@ -3441,13 +3489,13 @@
         <v>6521875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E132DC52-4B1D-4C38-A557-43CABF43EC6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6FDB5-2C83-412C-85CD-C2AEAAF3A842}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3539,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3646,13 +3694,13 @@
         <v>47136</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>249</v>
@@ -3661,13 +3709,13 @@
         <v>153718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
@@ -3676,13 +3724,13 @@
         <v>200854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3745,13 @@
         <v>492906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>1173</v>
@@ -3712,13 +3760,13 @@
         <v>677201</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>1804</v>
@@ -3727,13 +3775,13 @@
         <v>1170107</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3849,13 @@
         <v>87510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -3816,13 +3864,13 @@
         <v>147000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -3831,13 +3879,13 @@
         <v>234510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,28 +3900,28 @@
         <v>2074512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>2695</v>
       </c>
       <c r="I8" s="7">
-        <v>2101796</v>
+        <v>2101795</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>4597</v>
@@ -3882,13 +3930,13 @@
         <v>4176307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3963,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3959,10 +4007,10 @@
         <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3971,13 +4019,13 @@
         <v>23539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3986,13 +4034,13 @@
         <v>39954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4055,13 @@
         <v>656624</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>968</v>
@@ -4022,13 +4070,13 @@
         <v>690347</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1630</v>
@@ -4037,13 +4085,13 @@
         <v>1346972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4159,13 @@
         <v>151061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>510</v>
@@ -4126,13 +4174,13 @@
         <v>324257</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>677</v>
@@ -4141,13 +4189,13 @@
         <v>475318</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,28 +4210,28 @@
         <v>3224043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>4836</v>
       </c>
       <c r="I14" s="7">
-        <v>3469343</v>
+        <v>3469344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>8031</v>
@@ -4192,13 +4240,13 @@
         <v>6693386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4273,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793600</v>
+        <v>3793601</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDFE792-EDE9-4B85-9F4C-F7A1A4500F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D34C6D-A3FC-41FA-BDF1-C6590626FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2796A8F7-5B30-493F-B1DF-B8F1B36DEBD3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CB46C82-7329-4EB6-9D37-EF1B2EC6FEF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,10 +77,10 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>8,16%</t>
@@ -89,628 +89,628 @@
     <t>6,78%</t>
   </si>
   <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>90,22%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>92,71%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
   </si>
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCCAD03-1C22-49C0-8319-B45CCE5DE8D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFF11E-6580-4111-8CE3-6119362FDA90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1909,10 +1909,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>177</v>
@@ -1921,13 +1921,13 @@
         <v>180138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -1936,13 +1936,13 @@
         <v>264690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1954,16 @@
         <v>3128</v>
       </c>
       <c r="D14" s="7">
-        <v>3190974</v>
+        <v>3190973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3120</v>
@@ -1972,13 +1972,13 @@
         <v>3199060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6248</v>
@@ -1987,13 +1987,13 @@
         <v>6390033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE825FE6-8BCB-4A97-AA7C-DBF2ACE8BA79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1AC20F-0520-4B37-ADD7-9A75635A504C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2192,13 @@
         <v>50760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>136</v>
@@ -2207,13 +2207,13 @@
         <v>145894</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2222,13 +2222,13 @@
         <v>196653</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>923068</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -2258,13 +2258,13 @@
         <v>1187846</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1972</v>
@@ -2273,13 +2273,13 @@
         <v>2110915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2347,13 @@
         <v>48569</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -2362,13 +2362,13 @@
         <v>90344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>127</v>
@@ -2380,10 +2380,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>1911453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1547</v>
@@ -2413,13 +2413,13 @@
         <v>1661474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>3355</v>
@@ -2431,10 +2431,10 @@
         <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>15456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2517,13 +2517,13 @@
         <v>16574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2532,13 +2532,13 @@
         <v>32030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2553,7 @@
         <v>464876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>129</v>
@@ -2675,10 +2675,10 @@
         <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -2687,13 +2687,13 @@
         <v>367597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2708,13 @@
         <v>3299397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>3049</v>
@@ -2723,13 +2723,13 @@
         <v>3290401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>6148</v>
@@ -2738,13 +2738,13 @@
         <v>6589798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2DE099-14CF-49D6-AF62-A991127020F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E9ACB8-9B44-47D2-A18A-10405E1036D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2943,13 @@
         <v>38074</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -2958,13 +2958,13 @@
         <v>126349</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>151</v>
@@ -2973,13 +2973,13 @@
         <v>164423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>716273</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>779</v>
@@ -3009,13 +3009,13 @@
         <v>868311</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1503</v>
@@ -3024,13 +3024,13 @@
         <v>1584584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3098,13 @@
         <v>65106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -3113,13 +3113,13 @@
         <v>129947</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3128,13 +3128,13 @@
         <v>195053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3149,13 @@
         <v>2011279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1788</v>
@@ -3164,13 +3164,13 @@
         <v>1858353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3679</v>
@@ -3179,13 +3179,13 @@
         <v>3869632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3253,13 @@
         <v>14985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3268,13 +3268,13 @@
         <v>13382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3283,13 +3283,13 @@
         <v>28367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3304,13 @@
         <v>531901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
@@ -3319,13 +3319,13 @@
         <v>535758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6FDB5-2C83-412C-85CD-C2AEAAF3A842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4F9AC-FAA8-46E3-AD17-8B64CA081CD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3864,7 +3864,7 @@
         <v>147000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>246</v>
@@ -3915,7 +3915,7 @@
         <v>2101795</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>254</v>
@@ -4004,7 +4004,7 @@
         <v>16415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>259</v>
@@ -4055,7 +4055,7 @@
         <v>656624</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>267</v>
@@ -4159,7 +4159,7 @@
         <v>151061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>275</v>
@@ -4210,7 +4210,7 @@
         <v>3224043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>282</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D34C6D-A3FC-41FA-BDF1-C6590626FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4BB7A9-2914-4685-8B50-4C8DD613EB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CB46C82-7329-4EB6-9D37-EF1B2EC6FEF8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15396B14-E070-4DBF-B1AA-C7279867B1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,841 +71,793 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>96,17%</t>
   </si>
   <si>
     <t>91,45%</t>
   </si>
   <si>
-    <t>90,52%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFF11E-6580-4111-8CE3-6119362FDA90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A22B2E-A204-4377-B596-1C297AC1C4DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,10 +1876,10 @@
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -1936,13 +1888,13 @@
         <v>264690</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1909,13 @@
         <v>3190973</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3120</v>
@@ -1972,28 +1924,28 @@
         <v>3199060</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>6248</v>
       </c>
       <c r="N14" s="7">
-        <v>6390033</v>
+        <v>6390032</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,7 +1987,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2001,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1AC20F-0520-4B37-ADD7-9A75635A504C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E92144-64E2-42BA-AF94-E8D893FC5078}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2144,13 @@
         <v>50760</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>136</v>
@@ -2207,13 +2159,13 @@
         <v>145894</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2222,13 +2174,13 @@
         <v>196653</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2195,13 @@
         <v>923068</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>1107</v>
@@ -2258,13 +2210,13 @@
         <v>1187846</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1972</v>
@@ -2273,13 +2225,13 @@
         <v>2110915</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2299,13 @@
         <v>48569</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -2362,13 +2314,13 @@
         <v>90344</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>127</v>
@@ -2380,10 +2332,10 @@
         <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2350,10 @@
         <v>1911453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>115</v>
@@ -2502,13 +2454,13 @@
         <v>15456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2517,13 +2469,13 @@
         <v>16574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2532,13 +2484,13 @@
         <v>32030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2505,13 @@
         <v>464876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>395</v>
@@ -2568,13 +2520,13 @@
         <v>441080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>821</v>
@@ -2583,13 +2535,13 @@
         <v>905956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2609,13 @@
         <v>114785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>235</v>
@@ -2672,13 +2624,13 @@
         <v>252812</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -2687,13 +2639,13 @@
         <v>367597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2660,7 @@
         <v>3299397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>147</v>
@@ -2800,7 +2752,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E9ACB8-9B44-47D2-A18A-10405E1036D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C87096F-0537-4272-A4C0-E9F6540DDF15}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,10 +3053,10 @@
         <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="H7" s="7">
         <v>120</v>
@@ -3113,13 +3065,13 @@
         <v>129947</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -3128,13 +3080,13 @@
         <v>195053</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3101,13 @@
         <v>2011279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1788</v>
@@ -3164,13 +3116,13 @@
         <v>1858353</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>3679</v>
@@ -3179,13 +3131,13 @@
         <v>3869632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3205,13 @@
         <v>14985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3268,13 +3220,13 @@
         <v>13382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3283,13 +3235,13 @@
         <v>28367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3256,13 @@
         <v>531901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
@@ -3319,10 +3271,10 @@
         <v>535758</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>62</v>
@@ -3334,13 +3286,13 @@
         <v>1067659</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3360,13 @@
         <v>118165</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>245</v>
@@ -3423,13 +3375,13 @@
         <v>269678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>358</v>
@@ -3438,13 +3390,13 @@
         <v>387843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3411,13 @@
         <v>3259453</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>3081</v>
@@ -3474,13 +3426,13 @@
         <v>3262422</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>6183</v>
@@ -3489,13 +3441,13 @@
         <v>6521875</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4F9AC-FAA8-46E3-AD17-8B64CA081CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A620D-0AE2-4592-9845-28A3DAA4573F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3646,13 @@
         <v>47136</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>249</v>
@@ -3709,13 +3661,13 @@
         <v>153718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
@@ -3724,13 +3676,13 @@
         <v>200854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3697,13 @@
         <v>492906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>1173</v>
@@ -3760,13 +3712,13 @@
         <v>677201</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>1804</v>
@@ -3775,13 +3727,13 @@
         <v>1170107</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3801,13 @@
         <v>87510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
@@ -3864,13 +3816,13 @@
         <v>147000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -3879,13 +3831,13 @@
         <v>234510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,28 +3852,28 @@
         <v>2074512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>2695</v>
       </c>
       <c r="I8" s="7">
-        <v>2101795</v>
+        <v>2101796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>4597</v>
@@ -3930,13 +3882,13 @@
         <v>4176307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3915,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4004,13 +3956,13 @@
         <v>16415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4019,13 +3971,13 @@
         <v>23539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -4034,13 +3986,13 @@
         <v>39954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4007,13 @@
         <v>656624</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>968</v>
@@ -4070,13 +4022,13 @@
         <v>690347</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>1630</v>
@@ -4085,13 +4037,13 @@
         <v>1346972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4111,13 @@
         <v>151061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>510</v>
@@ -4174,13 +4126,13 @@
         <v>324257</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>677</v>
@@ -4189,13 +4141,13 @@
         <v>475318</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,28 +4162,28 @@
         <v>3224043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>4836</v>
       </c>
       <c r="I14" s="7">
-        <v>3469344</v>
+        <v>3469343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>8031</v>
@@ -4240,13 +4192,13 @@
         <v>6693386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,7 +4225,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793601</v>
+        <v>3793600</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4302,7 +4254,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4BB7A9-2914-4685-8B50-4C8DD613EB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4D474A-0835-4C7A-AAE9-9542FCF5E7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15396B14-E070-4DBF-B1AA-C7279867B1DC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FED0F43D-9DFF-46BC-83F8-EC6E3FE45E00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -698,166 +698,178 @@
     <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>8,73%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A22B2E-A204-4377-B596-1C297AC1C4DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E237CC-B968-449D-A6FF-D978EC990297}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,7 +1483,7 @@
         <v>2175</v>
       </c>
       <c r="N5" s="7">
-        <v>2192742</v>
+        <v>2192741</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1522,7 +1534,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1626,7 +1638,7 @@
         <v>3120</v>
       </c>
       <c r="N8" s="7">
-        <v>3196408</v>
+        <v>3196407</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1677,7 +1689,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1921,7 +1933,7 @@
         <v>3120</v>
       </c>
       <c r="I14" s="7">
-        <v>3199060</v>
+        <v>3199059</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1972,7 +1984,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2020,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E92144-64E2-42BA-AF94-E8D893FC5078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF75353A-161C-4B43-94A1-2F01C0BB4964}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2771,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C87096F-0537-4272-A4C0-E9F6540DDF15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1E980D-DA1C-4A92-84CB-A11B2B2F9A04}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3283,7 +3295,7 @@
         <v>1001</v>
       </c>
       <c r="N11" s="7">
-        <v>1067659</v>
+        <v>1067660</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>201</v>
@@ -3334,7 +3346,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3522,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4A620D-0AE2-4592-9845-28A3DAA4573F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41710BAC-738B-43D8-8CF8-CA1521169DB6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,46 +3655,46 @@
         <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>47136</v>
+        <v>43409</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>249</v>
       </c>
       <c r="I4" s="7">
-        <v>153718</v>
+        <v>135395</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>307</v>
       </c>
       <c r="N4" s="7">
-        <v>200854</v>
+        <v>178804</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,46 +3706,46 @@
         <v>631</v>
       </c>
       <c r="D5" s="7">
-        <v>492906</v>
+        <v>470043</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>1173</v>
       </c>
       <c r="I5" s="7">
-        <v>677201</v>
+        <v>615718</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>1804</v>
       </c>
       <c r="N5" s="7">
-        <v>1170107</v>
+        <v>1085761</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,7 +3757,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540042</v>
+        <v>513452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3760,7 +3772,7 @@
         <v>1422</v>
       </c>
       <c r="I6" s="7">
-        <v>830919</v>
+        <v>751113</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3775,7 +3787,7 @@
         <v>2111</v>
       </c>
       <c r="N6" s="7">
-        <v>1370961</v>
+        <v>1264565</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3798,46 +3810,46 @@
         <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>87510</v>
+        <v>82411</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>225</v>
       </c>
       <c r="I7" s="7">
-        <v>147000</v>
+        <v>133316</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
       </c>
       <c r="N7" s="7">
-        <v>234510</v>
+        <v>215726</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3861,13 @@
         <v>1902</v>
       </c>
       <c r="D8" s="7">
-        <v>2074512</v>
+        <v>2207916</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>244</v>
@@ -3864,31 +3876,31 @@
         <v>2695</v>
       </c>
       <c r="I8" s="7">
-        <v>2101796</v>
+        <v>2103829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M8" s="7">
         <v>4597</v>
       </c>
       <c r="N8" s="7">
-        <v>4176307</v>
+        <v>4311746</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3912,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3915,7 +3927,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3930,7 +3942,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3953,22 +3965,22 @@
         <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>16415</v>
+        <v>15894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>23539</v>
+        <v>21586</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>250</v>
@@ -3977,22 +3989,22 @@
         <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>39954</v>
+        <v>37480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,46 +4016,46 @@
         <v>662</v>
       </c>
       <c r="D11" s="7">
-        <v>656624</v>
+        <v>630729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>968</v>
       </c>
       <c r="I11" s="7">
-        <v>690347</v>
+        <v>638877</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>1630</v>
       </c>
       <c r="N11" s="7">
-        <v>1346972</v>
+        <v>1269606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,7 +4067,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4070,7 +4082,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4085,7 +4097,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4108,46 +4120,46 @@
         <v>167</v>
       </c>
       <c r="D13" s="7">
-        <v>151061</v>
+        <v>141714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>510</v>
       </c>
       <c r="I13" s="7">
-        <v>324257</v>
+        <v>290297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>677</v>
       </c>
       <c r="N13" s="7">
-        <v>475318</v>
+        <v>432011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,46 +4171,46 @@
         <v>3195</v>
       </c>
       <c r="D14" s="7">
-        <v>3224043</v>
+        <v>3308688</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>4836</v>
       </c>
       <c r="I14" s="7">
-        <v>3469343</v>
+        <v>3358424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>8031</v>
       </c>
       <c r="N14" s="7">
-        <v>6693386</v>
+        <v>6667113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4222,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375104</v>
+        <v>3450402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4225,7 +4237,7 @@
         <v>5346</v>
       </c>
       <c r="I15" s="7">
-        <v>3793600</v>
+        <v>3648721</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4240,7 +4252,7 @@
         <v>8708</v>
       </c>
       <c r="N15" s="7">
-        <v>7168704</v>
+        <v>7099124</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
